--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306EDD20-A1AD-44E6-A191-2714FD9AC456}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D7FC3D-3544-45FC-A6D0-2A684FEB80AD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incompleted" sheetId="1" r:id="rId1"/>
-    <sheet name="List" sheetId="4" r:id="rId2"/>
-    <sheet name="Tree" sheetId="3" r:id="rId3"/>
-    <sheet name="Graph" sheetId="2" r:id="rId4"/>
+    <sheet name="Statistics" sheetId="5" r:id="rId2"/>
+    <sheet name="Optimize" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,9 +22,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Completed Questions</t>
+  </si>
+  <si>
+    <t>Day1</t>
+  </si>
+  <si>
+    <t>Day2</t>
   </si>
 </sst>
 </file>
@@ -61,16 +75,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -94,12 +129,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7970DE8B-87D9-4437-B9EE-937BF29D00C4}" name="Table1" displayName="Table1" ref="A1:A20" totalsRowShown="0" headerRowDxfId="2" dataDxfId="0">
-  <autoFilter ref="A1:A20" xr:uid="{A414288C-18FD-4E8C-B9C1-0798E4D24AF5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7970DE8B-87D9-4437-B9EE-937BF29D00C4}" name="Table1" displayName="Table1" ref="A1:A16" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:A16" xr:uid="{A414288C-18FD-4E8C-B9C1-0798E4D24AF5}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{2F987F39-AB38-432E-9D47-4EE7DDF44BF9}" name="ID" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{2F987F39-AB38-432E-9D47-4EE7DDF44BF9}" name="ID" dataDxfId="6"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CCC8399-4DAF-4349-8A2E-EEA51350F440}" name="Table13" displayName="Table13" ref="A1:C16" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:C16" xr:uid="{3E3B5CAE-5A69-47D3-BA19-99AA1B34176F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3C9B0F5F-3BE9-46A3-B6E9-FA041B00E261}" name="Date" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{5F1471C1-A363-4F06-969B-0595B446CB68}" name="Timeline" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C78A138D-8EFD-4BED-81AB-139FEDCFCE78}" name="Completed Questions"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{259441D1-65DE-491C-96A2-E7F319946924}" name="Table3" displayName="Table3" ref="A1:A2" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:A2" xr:uid="{2202CC71-88B2-423C-9AAB-D4048A253793}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{812C84DF-0CD9-477D-8086-AD2EE431350A}" name="ID" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -366,9 +423,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -388,92 +445,72 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>48</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>57</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>89</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>114</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>145</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>207</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>215</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>236</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>341</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>365</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>382</v>
+        <v>653</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
-        <v>542</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -486,40 +523,142 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94476F34-6580-437D-A307-56065D6491EE}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.46484375" customWidth="1"/>
+    <col min="2" max="2" width="21.1328125" customWidth="1"/>
+    <col min="3" max="3" width="38.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>43374</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>43375</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C54BD65-D8AD-436B-9A77-CB51EAE7446F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE997975-1A6B-4A62-8DE4-14213450BA33}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>692</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7589BCB7-36CF-4053-80CF-4F494E694645}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D7FC3D-3544-45FC-A6D0-2A684FEB80AD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AE8053-EE9B-485A-881A-202B6C6EE292}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incompleted" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Day2</t>
+  </si>
+  <si>
+    <t>Day3</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -569,56 +574,75 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="2">
+        <v>43376</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
@@ -637,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE997975-1A6B-4A62-8DE4-14213450BA33}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AE8053-EE9B-485A-881A-202B6C6EE292}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7EE094-693E-4A4E-A734-82D715BD6BDA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,7 +581,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7EE094-693E-4A4E-A734-82D715BD6BDA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A570698-D748-487A-BD8A-383AED3CC525}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Day3</t>
+  </si>
+  <si>
+    <t>Day4</t>
   </si>
 </sst>
 </file>
@@ -530,7 +533,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -585,9 +588,15 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="2">
+        <v>43377</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A570698-D748-487A-BD8A-383AED3CC525}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F417C487-8515-4A98-AE84-26169020A97F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -46,6 +46,11 @@
   </si>
   <si>
     <t>Day4</t>
+  </si>
+  <si>
+    <t>HackerRank
+280
+713</t>
   </si>
 </sst>
 </file>
@@ -81,7 +86,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -89,11 +94,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -135,32 +146,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7970DE8B-87D9-4437-B9EE-937BF29D00C4}" name="Table1" displayName="Table1" ref="A1:A16" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7970DE8B-87D9-4437-B9EE-937BF29D00C4}" name="Table1" displayName="Table1" ref="A1:A16" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:A16" xr:uid="{A414288C-18FD-4E8C-B9C1-0798E4D24AF5}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{2F987F39-AB38-432E-9D47-4EE7DDF44BF9}" name="ID" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{2F987F39-AB38-432E-9D47-4EE7DDF44BF9}" name="ID" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CCC8399-4DAF-4349-8A2E-EEA51350F440}" name="Table13" displayName="Table13" ref="A1:C16" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:C16" xr:uid="{3E3B5CAE-5A69-47D3-BA19-99AA1B34176F}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3C9B0F5F-3BE9-46A3-B6E9-FA041B00E261}" name="Date" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{5F1471C1-A363-4F06-969B-0595B446CB68}" name="Timeline" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CCC8399-4DAF-4349-8A2E-EEA51350F440}" name="Table13" displayName="Table13" ref="A1:D16" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:D16" xr:uid="{3E3B5CAE-5A69-47D3-BA19-99AA1B34176F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{3C9B0F5F-3BE9-46A3-B6E9-FA041B00E261}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{5F1471C1-A363-4F06-969B-0595B446CB68}" name="Timeline" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{C78A138D-8EFD-4BED-81AB-139FEDCFCE78}" name="Completed Questions"/>
+    <tableColumn id="4" xr3:uid="{89A04200-39A7-4E74-A956-EFA3E43AE755}" name="ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{259441D1-65DE-491C-96A2-E7F319946924}" name="Table3" displayName="Table3" ref="A1:A2" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{259441D1-65DE-491C-96A2-E7F319946924}" name="Table3" displayName="Table3" ref="A1:A2" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:A2" xr:uid="{2202CC71-88B2-423C-9AAB-D4048A253793}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{812C84DF-0CD9-477D-8086-AD2EE431350A}" name="ID" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{812C84DF-0CD9-477D-8086-AD2EE431350A}" name="ID" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -530,10 +542,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -541,9 +553,10 @@
     <col min="1" max="1" width="19.46484375" customWidth="1"/>
     <col min="2" max="2" width="21.1328125" customWidth="1"/>
     <col min="3" max="3" width="38.53125" customWidth="1"/>
+    <col min="4" max="4" width="39.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -553,8 +566,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>43374</v>
       </c>
@@ -564,8 +580,9 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>43375</v>
       </c>
@@ -575,8 +592,9 @@
       <c r="C3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>43376</v>
       </c>
@@ -586,8 +604,9 @@
       <c r="C4" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>43377</v>
       </c>
@@ -595,63 +614,77 @@
         <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F417C487-8515-4A98-AE84-26169020A97F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8130CD8-33CB-49A4-BBCE-2811FEADED75}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incompleted" sheetId="1" r:id="rId1"/>
-    <sheet name="Statistics" sheetId="5" r:id="rId2"/>
-    <sheet name="Optimize" sheetId="6" r:id="rId3"/>
+    <sheet name="Statistics1" sheetId="5" r:id="rId2"/>
+    <sheet name="Statistics2" sheetId="7" r:id="rId3"/>
+    <sheet name="Optimize" sheetId="6" r:id="rId4"/>
+    <sheet name="DataSource" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -46,11 +48,28 @@
   </si>
   <si>
     <t>Day4</t>
+  </si>
+  <si>
+    <t>Difficulity</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Time Spent (min)</t>
   </si>
   <si>
     <t>HackerRank
 280
-713</t>
+713
+807
+890</t>
   </si>
 </sst>
 </file>
@@ -101,18 +120,30 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -146,33 +177,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7970DE8B-87D9-4437-B9EE-937BF29D00C4}" name="Table1" displayName="Table1" ref="A1:A16" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7970DE8B-87D9-4437-B9EE-937BF29D00C4}" name="Table1" displayName="Table1" ref="A1:A16" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:A16" xr:uid="{A414288C-18FD-4E8C-B9C1-0798E4D24AF5}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{2F987F39-AB38-432E-9D47-4EE7DDF44BF9}" name="ID" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{2F987F39-AB38-432E-9D47-4EE7DDF44BF9}" name="ID" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CCC8399-4DAF-4349-8A2E-EEA51350F440}" name="Table13" displayName="Table13" ref="A1:D16" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CCC8399-4DAF-4349-8A2E-EEA51350F440}" name="Table13" displayName="Table13" ref="A1:D16" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:D16" xr:uid="{3E3B5CAE-5A69-47D3-BA19-99AA1B34176F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3C9B0F5F-3BE9-46A3-B6E9-FA041B00E261}" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{5F1471C1-A363-4F06-969B-0595B446CB68}" name="Timeline" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{3C9B0F5F-3BE9-46A3-B6E9-FA041B00E261}" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{5F1471C1-A363-4F06-969B-0595B446CB68}" name="Timeline" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{C78A138D-8EFD-4BED-81AB-139FEDCFCE78}" name="Completed Questions"/>
-    <tableColumn id="4" xr3:uid="{89A04200-39A7-4E74-A956-EFA3E43AE755}" name="ID" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{89A04200-39A7-4E74-A956-EFA3E43AE755}" name="ID" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{259441D1-65DE-491C-96A2-E7F319946924}" name="Table3" displayName="Table3" ref="A1:A2" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3CB4432F-AAB5-432D-9A10-0362C55C5331}" name="Table4" displayName="Table4" ref="A1:C25" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:C25" xr:uid="{D6148891-E6FB-4182-90CD-FB8656804591}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{30D8286F-6E64-42F7-9F0F-D729000B5678}" name="ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{0C6C1D61-D4CB-4EE9-AD45-743FA4F4F083}" name="Difficulity" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{290200D2-28DE-4F4C-9DA9-FB74BAE5CD1E}" name="Time Spent (min)" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{259441D1-65DE-491C-96A2-E7F319946924}" name="Table3" displayName="Table3" ref="A1:A2" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:A2" xr:uid="{2202CC71-88B2-423C-9AAB-D4048A253793}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{812C84DF-0CD9-477D-8086-AD2EE431350A}" name="ID" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{812C84DF-0CD9-477D-8086-AD2EE431350A}" name="ID" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -545,7 +588,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -606,7 +649,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>43377</v>
       </c>
@@ -614,10 +657,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -700,6 +743,185 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88CF04A-5E34-4BE4-A3E6-0A32C84D391D}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.86328125" customWidth="1"/>
+    <col min="2" max="2" width="20.53125" customWidth="1"/>
+    <col min="3" max="3" width="27.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>807</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>890</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6BF9002C-1DF1-4F1E-AE77-78F40BE04ED9}">
+          <x14:formula1>
+            <xm:f>DataSource!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B25</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE997975-1A6B-4A62-8DE4-14213450BA33}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -727,4 +949,33 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB45D3CC-98C8-404C-85F4-F560B85C12E0}">
+  <dimension ref="A2:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8130CD8-33CB-49A4-BBCE-2811FEADED75}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFA2033-B951-4F1E-AD5B-40CB3BA46099}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incompleted" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -67,6 +67,7 @@
   <si>
     <t>HackerRank
 280
+544
 713
 807
 890</t>
@@ -587,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -649,7 +650,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>43377</v>
       </c>
@@ -657,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>13</v>
@@ -746,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88CF04A-5E34-4BE4-A3E6-0A32C84D391D}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -791,9 +792,15 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="1">
+        <v>544</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>120</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFA2033-B951-4F1E-AD5B-40CB3BA46099}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75274710-CCF8-476D-A690-60CBC4E399C8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incompleted" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -71,6 +71,9 @@
 713
 807
 890</t>
+  </si>
+  <si>
+    <t>Day5</t>
   </si>
 </sst>
 </file>
@@ -201,22 +204,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3CB4432F-AAB5-432D-9A10-0362C55C5331}" name="Table4" displayName="Table4" ref="A1:C25" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3CB4432F-AAB5-432D-9A10-0362C55C5331}" name="Table4" displayName="Table4" ref="A1:C25" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:C25" xr:uid="{D6148891-E6FB-4182-90CD-FB8656804591}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{30D8286F-6E64-42F7-9F0F-D729000B5678}" name="ID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{0C6C1D61-D4CB-4EE9-AD45-743FA4F4F083}" name="Difficulity" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{290200D2-28DE-4F4C-9DA9-FB74BAE5CD1E}" name="Time Spent (min)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{30D8286F-6E64-42F7-9F0F-D729000B5678}" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{0C6C1D61-D4CB-4EE9-AD45-743FA4F4F083}" name="Difficulity" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{290200D2-28DE-4F4C-9DA9-FB74BAE5CD1E}" name="Time Spent (min)" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{259441D1-65DE-491C-96A2-E7F319946924}" name="Table3" displayName="Table3" ref="A1:A2" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{259441D1-65DE-491C-96A2-E7F319946924}" name="Table3" displayName="Table3" ref="A1:A2" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="A1:A2" xr:uid="{2202CC71-88B2-423C-9AAB-D4048A253793}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{812C84DF-0CD9-477D-8086-AD2EE431350A}" name="ID" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{812C84DF-0CD9-477D-8086-AD2EE431350A}" name="ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -588,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -665,10 +668,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="2">
+        <v>43378</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
@@ -747,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88CF04A-5E34-4BE4-A3E6-0A32C84D391D}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -803,9 +814,15 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75274710-CCF8-476D-A690-60CBC4E399C8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2224E21-2A8C-4019-A48D-6D6C2692CF51}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Day5</t>
+  </si>
+  <si>
+    <t>Day6</t>
   </si>
 </sst>
 </file>
@@ -592,7 +595,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -682,10 +685,16 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="2">
+        <v>43395</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>253</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2224E21-2A8C-4019-A48D-6D6C2692CF51}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABA1319-71FE-4E73-AD68-6FDCD118854D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -77,6 +77,11 @@
   </si>
   <si>
     <t>Day6</t>
+  </si>
+  <si>
+    <t>22
+93
+253</t>
   </si>
 </sst>
 </file>
@@ -595,7 +600,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -684,16 +689,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>43395</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1">
-        <v>253</v>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABA1319-71FE-4E73-AD68-6FDCD118854D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A487DA05-8468-4A1D-A0CA-2BDF3820DA67}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -82,6 +82,9 @@
     <t>22
 93
 253</t>
+  </si>
+  <si>
+    <t>Day7</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -704,10 +707,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="2">
+        <v>43396</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>695</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A487DA05-8468-4A1D-A0CA-2BDF3820DA67}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9397D7A1-101D-4FB7-B404-683CBD4CB9AE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -85,6 +85,10 @@
   </si>
   <si>
     <t>Day7</t>
+  </si>
+  <si>
+    <t>695
+841</t>
   </si>
 </sst>
 </file>
@@ -603,7 +607,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -706,7 +710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>43396</v>
       </c>
@@ -714,8 +718,8 @@
         <v>17</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1">
-        <v>695</v>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9397D7A1-101D-4FB7-B404-683CBD4CB9AE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327E958A-D140-49C4-844D-A949BE0FA9A8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,8 @@
     <t>Day7</t>
   </si>
   <si>
-    <t>695
+    <t>276
+695
 841</t>
   </si>
 </sst>
@@ -607,7 +608,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -710,14 +711,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>43396</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327E958A-D140-49C4-844D-A949BE0FA9A8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DE41BB-3784-4A03-B9A6-DFE78D018AA9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incompleted" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -90,6 +90,12 @@
     <t>276
 695
 841</t>
+  </si>
+  <si>
+    <t>Day8</t>
+  </si>
+  <si>
+    <t>Day9</t>
   </si>
 </sst>
 </file>
@@ -608,7 +614,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -726,14 +732,26 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="2">
+        <v>43397</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>279</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="2">
+        <v>43398</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DE41BB-3784-4A03-B9A6-DFE78D018AA9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087BA3E1-224C-45FB-96C3-1661EF65B7F7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,8 +203,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7970DE8B-87D9-4437-B9EE-937BF29D00C4}" name="Table1" displayName="Table1" ref="A1:A16" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:A16" xr:uid="{A414288C-18FD-4E8C-B9C1-0798E4D24AF5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7970DE8B-87D9-4437-B9EE-937BF29D00C4}" name="Table1" displayName="Table1" ref="A1:A17" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:A17" xr:uid="{A414288C-18FD-4E8C-B9C1-0798E4D24AF5}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{2F987F39-AB38-432E-9D47-4EE7DDF44BF9}" name="ID" dataDxfId="11"/>
   </tableColumns>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -572,31 +572,36 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>445</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>476</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>535</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>653</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
         <v>687</v>
       </c>
     </row>
@@ -753,7 +758,9 @@
         <v>20</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087BA3E1-224C-45FB-96C3-1661EF65B7F7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E782AEDE-91BB-43F4-8DBE-65EB8E09BD41}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -96,6 +96,13 @@
   </si>
   <si>
     <t>Day9</t>
+  </si>
+  <si>
+    <t>76
+684</t>
+  </si>
+  <si>
+    <t>Day10</t>
   </si>
 </sst>
 </file>
@@ -619,7 +626,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -750,21 +757,27 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>43398</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1">
-        <v>76</v>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="2">
+        <v>43400</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E782AEDE-91BB-43F4-8DBE-65EB8E09BD41}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F495D51-6026-47FA-959D-9C81D14C282C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Day10</t>
+  </si>
+  <si>
+    <t>Day11</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -778,14 +781,24 @@
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>605</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="2">
+        <v>43401</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>904</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F495D51-6026-47FA-959D-9C81D14C282C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08FA525-326B-46D5-BF2D-70A55D39AE6B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Day11</t>
+  </si>
+  <si>
+    <t>16
+382
+560
+904</t>
   </si>
 </sst>
 </file>
@@ -629,7 +635,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -788,7 +794,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>43401</v>
       </c>
@@ -796,8 +802,8 @@
         <v>23</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1">
-        <v>904</v>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08FA525-326B-46D5-BF2D-70A55D39AE6B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD88CD2-1614-4CE4-A0AC-153D562CB97A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>16
+289
+292
+293
 382
 560
 904</t>
@@ -635,7 +638,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -794,7 +797,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>43401</v>
       </c>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD88CD2-1614-4CE4-A0AC-153D562CB97A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78E75EB-9B19-43FD-8B38-6FBAE71BAAD2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -108,13 +108,21 @@
     <t>Day11</t>
   </si>
   <si>
+    <t>Day12</t>
+  </si>
+  <si>
     <t>16
-289
+28
 292
 293
-382
 560
 904</t>
+  </si>
+  <si>
+    <t>72
+289
+294
+382</t>
   </si>
 </sst>
 </file>
@@ -638,7 +646,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -797,23 +805,29 @@
         <v>605</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>43401</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
       <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78E75EB-9B19-43FD-8B38-6FBAE71BAAD2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7753D8C-6ED8-4DC1-B5B2-93310DB5AC57}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,28 +111,69 @@
     <t>Day12</t>
   </si>
   <si>
-    <t>16
-28
+    <r>
+      <t xml:space="preserve">16
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 292
 293
 560
 904</t>
-  </si>
-  <si>
-    <t>72
-289
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">72
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>289
 294
 382</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -820,7 +861,9 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="57" x14ac:dyDescent="0.45">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2">
+        <v>43402</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7753D8C-6ED8-4DC1-B5B2-93310DB5AC57}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5262D95-5834-490B-AF73-7C583FC58CE3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -153,6 +152,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>96</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>289
 294
 382</t>
@@ -163,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +194,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -860,7 +886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>43402</v>
       </c>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5262D95-5834-490B-AF73-7C583FC58CE3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD0BF34-AD66-4427-B793-216EFF39FD45}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -140,43 +140,14 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">72
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>96</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>289
+    <t>96
+289
 294
 382</t>
-    </r>
+  </si>
+  <si>
+    <t>72
+236</t>
   </si>
 </sst>
 </file>
@@ -225,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -234,6 +205,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -713,7 +687,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -886,23 +860,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>43402</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD0BF34-AD66-4427-B793-216EFF39FD45}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AA895F-295F-47E4-AAB9-82886E015411}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -148,6 +148,9 @@
   <si>
     <t>72
 236</t>
+  </si>
+  <si>
+    <t>Day13</t>
   </si>
 </sst>
 </file>
@@ -686,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -874,19 +877,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.45">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>43403</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D14" s="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AA895F-295F-47E4-AAB9-82886E015411}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACD8A03-831A-4F07-A544-6CB2F6179D9C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incompleted" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -140,17 +140,23 @@
     </r>
   </si>
   <si>
+    <t>72
+236</t>
+  </si>
+  <si>
+    <t>Day13</t>
+  </si>
+  <si>
     <t>96
 289
-294
-382</t>
-  </si>
-  <si>
-    <t>72
-236</t>
-  </si>
-  <si>
-    <t>Day13</t>
+294</t>
+  </si>
+  <si>
+    <t>89
+304
+307
+382
+832</t>
   </si>
 </sst>
 </file>
@@ -689,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -874,27 +880,29 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>43403</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACD8A03-831A-4F07-A544-6CB2F6179D9C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D05CB3C-6442-4D2F-A0C4-453F4900CB90}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incompleted" sheetId="1" r:id="rId1"/>
@@ -696,7 +696,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D05CB3C-6442-4D2F-A0C4-453F4900CB90}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F82263-AC5B-4B7E-BFEE-EFCE86AE00CB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,6 +153,7 @@
   </si>
   <si>
     <t>89
+294
 304
 307
 382
@@ -696,7 +697,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -883,7 +884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>43403</v>
       </c>
@@ -891,7 +892,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F82263-AC5B-4B7E-BFEE-EFCE86AE00CB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9CCE7B-A7E0-4B34-9E83-BC5471A2DD3D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -147,12 +147,8 @@
     <t>Day13</t>
   </si>
   <si>
-    <t>96
-289
-294</t>
-  </si>
-  <si>
     <t>89
+96
 294
 304
 307
@@ -697,7 +693,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -884,7 +880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>43403</v>
       </c>
@@ -892,18 +888,18 @@
         <v>27</v>
       </c>
       <c r="C14" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="4" t="s">
-        <v>28</v>
+      <c r="D15" s="4">
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9CCE7B-A7E0-4B34-9E83-BC5471A2DD3D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3EBF91-24CB-4E57-BB91-584245942C7B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -63,14 +63,6 @@
   </si>
   <si>
     <t>Time Spent (min)</t>
-  </si>
-  <si>
-    <t>HackerRank
-280
-544
-713
-807
-890</t>
   </si>
   <si>
     <t>Day5</t>
@@ -154,6 +146,31 @@
 307
 382
 832</t>
+  </si>
+  <si>
+    <t>HackerRank ID</t>
+  </si>
+  <si>
+    <t>LeetCode ID</t>
+  </si>
+  <si>
+    <t>Stock Maximize</t>
+  </si>
+  <si>
+    <t>280
+544
+713
+807
+890</t>
+  </si>
+  <si>
+    <t>122
+123
+188
+289
+309
+714
+901</t>
   </si>
 </sst>
 </file>
@@ -220,30 +237,33 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -277,45 +297,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7970DE8B-87D9-4437-B9EE-937BF29D00C4}" name="Table1" displayName="Table1" ref="A1:A17" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7970DE8B-87D9-4437-B9EE-937BF29D00C4}" name="Table1" displayName="Table1" ref="A1:A17" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:A17" xr:uid="{A414288C-18FD-4E8C-B9C1-0798E4D24AF5}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{2F987F39-AB38-432E-9D47-4EE7DDF44BF9}" name="ID" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{2F987F39-AB38-432E-9D47-4EE7DDF44BF9}" name="ID" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CCC8399-4DAF-4349-8A2E-EEA51350F440}" name="Table13" displayName="Table13" ref="A1:D16" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A1:D16" xr:uid="{3E3B5CAE-5A69-47D3-BA19-99AA1B34176F}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3C9B0F5F-3BE9-46A3-B6E9-FA041B00E261}" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{5F1471C1-A363-4F06-969B-0595B446CB68}" name="Timeline" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CCC8399-4DAF-4349-8A2E-EEA51350F440}" name="Table13" displayName="Table13" ref="A1:E16" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A1:E16" xr:uid="{3E3B5CAE-5A69-47D3-BA19-99AA1B34176F}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{3C9B0F5F-3BE9-46A3-B6E9-FA041B00E261}" name="Date" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{5F1471C1-A363-4F06-969B-0595B446CB68}" name="Timeline" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{C78A138D-8EFD-4BED-81AB-139FEDCFCE78}" name="Completed Questions"/>
-    <tableColumn id="4" xr3:uid="{89A04200-39A7-4E74-A956-EFA3E43AE755}" name="ID" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{89A04200-39A7-4E74-A956-EFA3E43AE755}" name="LeetCode ID" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{E1A81FE0-BA23-4789-956E-0BA28870CFB7}" name="HackerRank ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3CB4432F-AAB5-432D-9A10-0362C55C5331}" name="Table4" displayName="Table4" ref="A1:C25" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3CB4432F-AAB5-432D-9A10-0362C55C5331}" name="Table4" displayName="Table4" ref="A1:C25" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:C25" xr:uid="{D6148891-E6FB-4182-90CD-FB8656804591}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{30D8286F-6E64-42F7-9F0F-D729000B5678}" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{0C6C1D61-D4CB-4EE9-AD45-743FA4F4F083}" name="Difficulity" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{290200D2-28DE-4F4C-9DA9-FB74BAE5CD1E}" name="Time Spent (min)" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{30D8286F-6E64-42F7-9F0F-D729000B5678}" name="ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{0C6C1D61-D4CB-4EE9-AD45-743FA4F4F083}" name="Difficulity" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{290200D2-28DE-4F4C-9DA9-FB74BAE5CD1E}" name="Time Spent (min)" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{259441D1-65DE-491C-96A2-E7F319946924}" name="Table3" displayName="Table3" ref="A1:A2" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{259441D1-65DE-491C-96A2-E7F319946924}" name="Table3" displayName="Table3" ref="A1:A2" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:A2" xr:uid="{2202CC71-88B2-423C-9AAB-D4048A253793}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{812C84DF-0CD9-477D-8086-AD2EE431350A}" name="ID" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{812C84DF-0CD9-477D-8086-AD2EE431350A}" name="ID" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -690,10 +711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -701,10 +722,11 @@
     <col min="1" max="1" width="19.46484375" customWidth="1"/>
     <col min="2" max="2" width="21.1328125" customWidth="1"/>
     <col min="3" max="3" width="38.53125" customWidth="1"/>
-    <col min="4" max="4" width="39.46484375" customWidth="1"/>
+    <col min="4" max="4" width="22.46484375" customWidth="1"/>
+    <col min="5" max="5" width="19.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -715,10 +737,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>43374</v>
       </c>
@@ -729,8 +754,9 @@
         <v>1</v>
       </c>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>43375</v>
       </c>
@@ -741,8 +767,9 @@
         <v>2</v>
       </c>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>43376</v>
       </c>
@@ -753,8 +780,9 @@
         <v>6</v>
       </c>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>43377</v>
       </c>
@@ -765,15 +793,18 @@
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>43378</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -781,41 +812,44 @@
       <c r="D6" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>43395</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>43396</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>43397</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -823,27 +857,29 @@
       <c r="D9" s="1">
         <v>279</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>43398</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>43400</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -851,62 +887,68 @@
       <c r="D11" s="1">
         <v>605</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>43401</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1">
         <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>43402</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>43403</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
         <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="4">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3EBF91-24CB-4E57-BB91-584245942C7B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2086AAC3-078D-4FE1-8D6B-A09F8B71E1F4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -171,6 +171,9 @@
 309
 714
 901</t>
+  </si>
+  <si>
+    <t>Day14</t>
   </si>
 </sst>
 </file>
@@ -242,28 +245,28 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -313,30 +316,30 @@
     <tableColumn id="1" xr3:uid="{3C9B0F5F-3BE9-46A3-B6E9-FA041B00E261}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{5F1471C1-A363-4F06-969B-0595B446CB68}" name="Timeline" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{C78A138D-8EFD-4BED-81AB-139FEDCFCE78}" name="Completed Questions"/>
-    <tableColumn id="4" xr3:uid="{89A04200-39A7-4E74-A956-EFA3E43AE755}" name="LeetCode ID" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{E1A81FE0-BA23-4789-956E-0BA28870CFB7}" name="HackerRank ID" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{89A04200-39A7-4E74-A956-EFA3E43AE755}" name="LeetCode ID" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{E1A81FE0-BA23-4789-956E-0BA28870CFB7}" name="HackerRank ID" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3CB4432F-AAB5-432D-9A10-0362C55C5331}" name="Table4" displayName="Table4" ref="A1:C25" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3CB4432F-AAB5-432D-9A10-0362C55C5331}" name="Table4" displayName="Table4" ref="A1:C25" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:C25" xr:uid="{D6148891-E6FB-4182-90CD-FB8656804591}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{30D8286F-6E64-42F7-9F0F-D729000B5678}" name="ID" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{0C6C1D61-D4CB-4EE9-AD45-743FA4F4F083}" name="Difficulity" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{290200D2-28DE-4F4C-9DA9-FB74BAE5CD1E}" name="Time Spent (min)" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{30D8286F-6E64-42F7-9F0F-D729000B5678}" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{0C6C1D61-D4CB-4EE9-AD45-743FA4F4F083}" name="Difficulity" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{290200D2-28DE-4F4C-9DA9-FB74BAE5CD1E}" name="Time Spent (min)" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{259441D1-65DE-491C-96A2-E7F319946924}" name="Table3" displayName="Table3" ref="A1:A2" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{259441D1-65DE-491C-96A2-E7F319946924}" name="Table3" displayName="Table3" ref="A1:A2" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="A1:A2" xr:uid="{2202CC71-88B2-423C-9AAB-D4048A253793}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{812C84DF-0CD9-477D-8086-AD2EE431350A}" name="ID" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{812C84DF-0CD9-477D-8086-AD2EE431350A}" name="ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -713,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -934,20 +937,26 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>43409</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="4" t="s">
-        <v>32</v>
+      <c r="D15" s="1">
+        <v>124</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2086AAC3-078D-4FE1-8D6B-A09F8B71E1F4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91517FFF-2C65-49D1-B0BA-0111BD02C87C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -164,7 +164,27 @@
 890</t>
   </si>
   <si>
-    <t>122
+    <t>Day14</t>
+  </si>
+  <si>
+    <t>Day15</t>
+  </si>
+  <si>
+    <t>Day16</t>
+  </si>
+  <si>
+    <t>209
+263</t>
+  </si>
+  <si>
+    <t>Day17</t>
+  </si>
+  <si>
+    <t>Day18</t>
+  </si>
+  <si>
+    <t>81
+122
 123
 188
 289
@@ -173,7 +193,7 @@
 901</t>
   </si>
   <si>
-    <t>Day14</t>
+    <t>Day19</t>
   </si>
 </sst>
 </file>
@@ -222,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -234,6 +254,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -310,8 +333,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CCC8399-4DAF-4349-8A2E-EEA51350F440}" name="Table13" displayName="Table13" ref="A1:E16" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="A1:E16" xr:uid="{3E3B5CAE-5A69-47D3-BA19-99AA1B34176F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CCC8399-4DAF-4349-8A2E-EEA51350F440}" name="Table13" displayName="Table13" ref="A1:E25" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A1:E25" xr:uid="{3E3B5CAE-5A69-47D3-BA19-99AA1B34176F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3C9B0F5F-3BE9-46A3-B6E9-FA041B00E261}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{5F1471C1-A363-4F06-969B-0595B446CB68}" name="Timeline" dataDxfId="9"/>
@@ -714,10 +737,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -942,26 +965,120 @@
         <v>43409</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
       <c r="D15" s="1">
         <v>124</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="4" t="s">
-        <v>32</v>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>43410</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>202</v>
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>43411</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>43415</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>287</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>43421</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>144</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="114" x14ac:dyDescent="0.45">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91517FFF-2C65-49D1-B0BA-0111BD02C87C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB29385-E4D0-449A-9527-D40CC49BAFA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -183,8 +183,10 @@
     <t>Day18</t>
   </si>
   <si>
-    <t>81
-122
+    <t>Day19</t>
+  </si>
+  <si>
+    <t>122
 123
 188
 289
@@ -193,7 +195,8 @@
 901</t>
   </si>
   <si>
-    <t>Day19</t>
+    <t>81
+129</t>
   </si>
 </sst>
 </file>
@@ -1035,21 +1038,23 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="114" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" s="1"/>
     </row>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB29385-E4D0-449A-9527-D40CC49BAFA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46408946-3CDB-4D67-B044-989D18FA220B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -742,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1039,7 +1039,9 @@
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2">
+        <v>43429</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>38</v>
       </c>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46408946-3CDB-4D67-B044-989D18FA220B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A81D235-AE17-43A3-A197-4843EF637CF1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -195,8 +195,43 @@
 901</t>
   </si>
   <si>
-    <t>81
+    <t>Day20</t>
+  </si>
+  <si>
+    <t>346
+349
+350
+359</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">81
+95
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>99
+105
+106</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+113
 129</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -742,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1038,33 +1073,41 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>43429</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <v>7</v>
+      </c>
       <c r="D20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>43432</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="4" t="s">
-        <v>39</v>
+      <c r="D21" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A81D235-AE17-43A3-A197-4843EF637CF1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F39B30-9F10-47AF-AEB6-0C8B630E0762}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,17 +14,23 @@
     <sheet name="Optimize" sheetId="6" r:id="rId4"/>
     <sheet name="DataSource" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -232,6 +238,16 @@
 113
 129</t>
     </r>
+  </si>
+  <si>
+    <t>Day21</t>
+  </si>
+  <si>
+    <t>40
+43
+77
+90
+131</t>
   </si>
 </sst>
 </file>
@@ -777,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1095,26 +1111,36 @@
       <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
       <c r="D21" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="4" t="s">
-        <v>39</v>
+    <row r="22" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <v>43433</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F39B30-9F10-47AF-AEB6-0C8B630E0762}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D681CE41-850C-4F8B-BC4A-899FEF908510}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -210,6 +210,9 @@
 359</t>
   </si>
   <si>
+    <t>Day21</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">81
 95
@@ -223,8 +226,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>99
-105
+      <t xml:space="preserve">99
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>105</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 106</t>
     </r>
     <r>
@@ -240,14 +262,36 @@
     </r>
   </si>
   <si>
-    <t>Day21</t>
-  </si>
-  <si>
-    <t>40
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">40
 43
 77
 90
-131</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>131</t>
+    </r>
+  </si>
+  <si>
+    <t>Day22</t>
+  </si>
+  <si>
+    <t>219
+270</t>
   </si>
 </sst>
 </file>
@@ -793,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1100,7 +1144,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1124,7 +1168,7 @@
         <v>43433</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
@@ -1134,20 +1178,28 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="4" t="s">
-        <v>39</v>
+    <row r="23" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
+        <v>43434</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D681CE41-850C-4F8B-BC4A-899FEF908510}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB78C2C-7792-43AB-913D-F68830D11A59}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>LeetCode ID</t>
-  </si>
-  <si>
-    <t>Stock Maximize</t>
   </si>
   <si>
     <t>280
@@ -262,6 +259,16 @@
     </r>
   </si>
   <si>
+    <t>Day22</t>
+  </si>
+  <si>
+    <t>219
+270</t>
+  </si>
+  <si>
+    <r>
+      <t>40</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -270,10 +277,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">40
+      <t xml:space="preserve">
 43
 77
-90
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -285,13 +311,6 @@
       </rPr>
       <t>131</t>
     </r>
-  </si>
-  <si>
-    <t>Day22</t>
-  </si>
-  <si>
-    <t>219
-270</t>
   </si>
 </sst>
 </file>
@@ -838,7 +857,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -914,14 +933,12 @@
         <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
@@ -1063,7 +1080,7 @@
         <v>43409</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -1078,7 +1095,7 @@
         <v>43410</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -1093,13 +1110,13 @@
         <v>43411</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -1108,7 +1125,7 @@
         <v>43415</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1123,7 +1140,7 @@
         <v>43421</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1138,13 +1155,13 @@
         <v>43429</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1">
         <v>7</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1153,13 +1170,13 @@
         <v>43432</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -1168,13 +1185,13 @@
         <v>43433</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1183,13 +1200,13 @@
         <v>43434</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -1198,7 +1215,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1"/>
     </row>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB78C2C-7792-43AB-913D-F68830D11A59}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7CEEAD-FD5B-4585-9046-512332E6D78C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,55 +208,6 @@
   </si>
   <si>
     <t>Day21</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">81
-95
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">99
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>105</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-106</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-113
-129</t>
-    </r>
   </si>
   <si>
     <t>Day22</t>
@@ -310,6 +261,55 @@
         <scheme val="minor"/>
       </rPr>
       <t>131</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">81
+95
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">99
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>105</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>106
+113
+129</t>
     </r>
   </si>
 </sst>
@@ -857,7 +857,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1161,7 +1161,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1191,7 +1191,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1200,13 +1200,13 @@
         <v>43434</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1"/>
     </row>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7CEEAD-FD5B-4585-9046-512332E6D78C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E58D86-52D2-44FF-AC5D-D586F0899941}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,53 +215,6 @@
   <si>
     <t>219
 270</t>
-  </si>
-  <si>
-    <r>
-      <t>40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-43
-77
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>90</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>131</t>
-    </r>
   </si>
   <si>
     <r>
@@ -310,6 +263,72 @@
       <t>106
 113
 129</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+43
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>77</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>131</t>
     </r>
   </si>
 </sst>
@@ -1161,7 +1180,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1191,7 +1210,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" s="1"/>
     </row>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E58D86-52D2-44FF-AC5D-D586F0899941}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC35D8E-3E6D-4416-94DD-5AC5D89D1E7E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -330,6 +330,14 @@
       </rPr>
       <t>131</t>
     </r>
+  </si>
+  <si>
+    <t>Day23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+109
+163</t>
   </si>
 </sst>
 </file>
@@ -875,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1229,19 +1237,25 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+    <row r="24" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
+        <v>43439</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="4" t="s">
-        <v>38</v>
+      <c r="D24" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="E25" s="1"/>
     </row>
   </sheetData>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC35D8E-3E6D-4416-94DD-5AC5D89D1E7E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36641F0-2451-4B4F-84F2-2610A281CD75}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,8 +335,9 @@
     <t>Day23</t>
   </si>
   <si>
-    <t xml:space="preserve">
+    <t>60
 109
+161
 163</t>
   </si>
 </sst>
@@ -1237,7 +1238,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>43439</v>
       </c>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36641F0-2451-4B4F-84F2-2610A281CD75}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE20A38-478F-4A05-8357-4D6B89DC0682}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -335,10 +335,59 @@
     <t>Day23</t>
   </si>
   <si>
-    <t>60
-109
+    <r>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>109</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>148
 161
 163</t>
+    </r>
+  </si>
+  <si>
+    <t>Day24</t>
+  </si>
+  <si>
+    <t>134
+165
+179</t>
   </si>
 </sst>
 </file>
@@ -478,8 +527,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CCC8399-4DAF-4349-8A2E-EEA51350F440}" name="Table13" displayName="Table13" ref="A1:E25" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="A1:E25" xr:uid="{3E3B5CAE-5A69-47D3-BA19-99AA1B34176F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CCC8399-4DAF-4349-8A2E-EEA51350F440}" name="Table13" displayName="Table13" ref="A1:E26" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A1:E26" xr:uid="{3E3B5CAE-5A69-47D3-BA19-99AA1B34176F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3C9B0F5F-3BE9-46A3-B6E9-FA041B00E261}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{5F1471C1-A363-4F06-969B-0595B446CB68}" name="Timeline" dataDxfId="9"/>
@@ -882,10 +931,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1238,26 +1287,40 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>43439</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1">
+        <v>5</v>
+      </c>
       <c r="D24" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="D25" s="4" t="s">
+    <row r="25" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
+        <v>43442</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="D26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE20A38-478F-4A05-8357-4D6B89DC0682}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5247D65-8CCC-4127-863B-6E8B0C39833E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -934,7 +934,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1309,6 +1309,9 @@
       <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
       <c r="D25" s="5" t="s">
         <v>49</v>
       </c>
@@ -1317,6 +1320,7 @@
     <row r="26" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="4" t="s">
         <v>38</v>
       </c>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5247D65-8CCC-4127-863B-6E8B0C39833E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8F00DE-5531-40F7-9DB3-76251FBDD77B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -385,9 +385,36 @@
     <t>Day24</t>
   </si>
   <si>
-    <t>134
+    <t>Day25</t>
+  </si>
+  <si>
+    <t>301
+380
+393
+400</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>134</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 165
 179</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -527,8 +554,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CCC8399-4DAF-4349-8A2E-EEA51350F440}" name="Table13" displayName="Table13" ref="A1:E26" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="A1:E26" xr:uid="{3E3B5CAE-5A69-47D3-BA19-99AA1B34176F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CCC8399-4DAF-4349-8A2E-EEA51350F440}" name="Table13" displayName="Table13" ref="A1:E45" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A1:E45" xr:uid="{3E3B5CAE-5A69-47D3-BA19-99AA1B34176F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3C9B0F5F-3BE9-46A3-B6E9-FA041B00E261}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{5F1471C1-A363-4F06-969B-0595B446CB68}" name="Timeline" dataDxfId="9"/>
@@ -931,10 +958,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1313,18 +1340,140 @@
         <v>3</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
+        <v>43444</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
       <c r="D26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" ht="111.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="D45" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E45" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8F00DE-5531-40F7-9DB3-76251FBDD77B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5260DBA-D744-4714-8A15-77C710CDEC7F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5260DBA-D744-4714-8A15-77C710CDEC7F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036D51F9-653D-4581-B216-EB399A43AEA3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,21 +388,11 @@
     <t>Day25</t>
   </si>
   <si>
-    <t>301
+    <r>
+      <t xml:space="preserve">301
 380
 393
-400</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>134</t>
+</t>
     </r>
     <r>
       <rPr>
@@ -411,10 +401,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
+      <t>400</t>
+    </r>
+  </si>
+  <si>
+    <t>134
 165
 179</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -960,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036D51F9-653D-4581-B216-EB399A43AEA3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD33301A-5391-417E-9312-D9D51B79F340}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -388,26 +388,48 @@
     <t>Day25</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">301
-380
-393
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>400</t>
-    </r>
-  </si>
-  <si>
     <t>134
 165
 179</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">301
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>380</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+393
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400</t>
+    </r>
+  </si>
+  <si>
+    <t>Day26</t>
   </si>
 </sst>
 </file>
@@ -954,7 +976,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1333,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -1348,14 +1370,20 @@
         <v>4</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="A27" s="2">
+        <v>43445</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="1">
+        <v>365</v>
+      </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD33301A-5391-417E-9312-D9D51B79F340}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADE6C6F-6119-4026-B9BF-91B255B6909B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -266,72 +266,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-43
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>77</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>90</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>131</t>
-    </r>
-  </si>
-  <si>
     <t>Day23</t>
   </si>
   <si>
@@ -430,6 +364,91 @@
   </si>
   <si>
     <t>Day26</t>
+  </si>
+  <si>
+    <r>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>77</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>131</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -478,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -494,6 +513,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1310,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1334,13 +1356,13 @@
         <v>43439</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -1349,13 +1371,13 @@
         <v>43442</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -1364,13 +1386,13 @@
         <v>43444</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -1379,7 +1401,10 @@
         <v>43445</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1</v>
       </c>
       <c r="D27" s="1">
         <v>365</v>
@@ -1389,108 +1414,126 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
+      <c r="C43" s="6"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" ht="111.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
+      <c r="C45" s="6"/>
       <c r="D45" s="4" t="s">
         <v>38</v>
       </c>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADE6C6F-6119-4026-B9BF-91B255B6909B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238264A3-3346-4F03-8199-FEACA1DB9634}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -327,6 +327,94 @@
 179</t>
   </si>
   <si>
+    <t>Day26</t>
+  </si>
+  <si>
+    <r>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>77</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>131</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">301
 </t>
@@ -338,116 +426,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>380</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t>380
 393
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>400</t>
-    </r>
-  </si>
-  <si>
-    <t>Day26</t>
-  </si>
-  <si>
-    <r>
-      <t>40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>43</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>77</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>90</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>131</t>
+400</t>
     </r>
   </si>
 </sst>
@@ -998,7 +979,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1332,7 +1313,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1392,7 +1373,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -1401,7 +1382,7 @@
         <v>43445</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238264A3-3346-4F03-8199-FEACA1DB9634}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600C7374-AC62-4FF3-B244-E94E00A8907C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -189,15 +189,6 @@
     <t>Day19</t>
   </si>
   <si>
-    <t>122
-123
-188
-289
-309
-714
-901</t>
-  </si>
-  <si>
     <t>Day20</t>
   </si>
   <si>
@@ -430,6 +421,23 @@
 393
 400</t>
     </r>
+  </si>
+  <si>
+    <t>122
+123
+188
+309
+714
+901</t>
+  </si>
+  <si>
+    <t>Day27</t>
+  </si>
+  <si>
+    <t>150
+166
+173
+289</t>
   </si>
 </sst>
 </file>
@@ -978,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1283,7 +1291,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1292,13 +1300,13 @@
         <v>43432</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -1307,13 +1315,13 @@
         <v>43433</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1322,13 +1330,13 @@
         <v>43434</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -1337,13 +1345,13 @@
         <v>43439</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -1352,13 +1360,13 @@
         <v>43442</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -1367,13 +1375,13 @@
         <v>43444</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -1382,7 +1390,7 @@
         <v>43445</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
@@ -1392,131 +1400,139 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="1"/>
+    <row r="28" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
+        <v>43449</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="6"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="6"/>
+      <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="6"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="6"/>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="6"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="6"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="6"/>
+      <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="6"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="6"/>
+      <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="6"/>
+      <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="6"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="6"/>
+      <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="6"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="6"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="6"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="6"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" ht="111.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="6"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E45" s="1"/>
     </row>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600C7374-AC62-4FF3-B244-E94E00A8907C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5370181-08AA-438B-9660-7B96CFADB1E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,10 +434,29 @@
     <t>Day27</t>
   </si>
   <si>
-    <t>150
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 166
 173
+221
 289</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -986,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1400,7 +1419,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>43449</v>
       </c>
@@ -1408,7 +1427,7 @@
         <v>53</v>
       </c>
       <c r="C28" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>54</v>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5370181-08AA-438B-9660-7B96CFADB1E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26C9D26-7E4C-4317-BEEC-D46755A8BB26}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,9 +452,47 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-166
-173
-221
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>166</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">173
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>221
 289</t>
     </r>
   </si>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,16 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26C9D26-7E4C-4317-BEEC-D46755A8BB26}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1106E675-488C-48EE-950B-AF6971841D4B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incompleted" sheetId="1" r:id="rId1"/>
-    <sheet name="Statistics1" sheetId="5" r:id="rId2"/>
-    <sheet name="Statistics2" sheetId="7" r:id="rId3"/>
-    <sheet name="Optimize" sheetId="6" r:id="rId4"/>
-    <sheet name="DataSource" sheetId="8" r:id="rId5"/>
+    <sheet name="leetcode-statistics" sheetId="5" r:id="rId2"/>
+    <sheet name="Optimize" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -54,21 +52,6 @@
   </si>
   <si>
     <t>Day4</t>
-  </si>
-  <si>
-    <t>Difficulity</t>
-  </si>
-  <si>
-    <t>Easy</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Hard</t>
-  </si>
-  <si>
-    <t>Time Spent (min)</t>
   </si>
   <si>
     <t>Day5</t>
@@ -154,9 +137,6 @@
 832</t>
   </si>
   <si>
-    <t>HackerRank ID</t>
-  </si>
-  <si>
     <t>LeetCode ID</t>
   </si>
   <si>
@@ -481,8 +461,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">173
-</t>
+      <t>173
+221</t>
     </r>
     <r>
       <rPr>
@@ -492,7 +472,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>221
+      <t xml:space="preserve">
 289</t>
     </r>
   </si>
@@ -567,22 +547,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -627,42 +592,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7970DE8B-87D9-4437-B9EE-937BF29D00C4}" name="Table1" displayName="Table1" ref="A1:A17" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7970DE8B-87D9-4437-B9EE-937BF29D00C4}" name="Table1" displayName="Table1" ref="A1:A17" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:A17" xr:uid="{A414288C-18FD-4E8C-B9C1-0798E4D24AF5}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{2F987F39-AB38-432E-9D47-4EE7DDF44BF9}" name="ID" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{2F987F39-AB38-432E-9D47-4EE7DDF44BF9}" name="ID" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CCC8399-4DAF-4349-8A2E-EEA51350F440}" name="Table13" displayName="Table13" ref="A1:E45" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="A1:E45" xr:uid="{3E3B5CAE-5A69-47D3-BA19-99AA1B34176F}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3C9B0F5F-3BE9-46A3-B6E9-FA041B00E261}" name="Date" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{5F1471C1-A363-4F06-969B-0595B446CB68}" name="Timeline" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CCC8399-4DAF-4349-8A2E-EEA51350F440}" name="Table13" displayName="Table13" ref="A1:D45" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:D45" xr:uid="{3E3B5CAE-5A69-47D3-BA19-99AA1B34176F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{3C9B0F5F-3BE9-46A3-B6E9-FA041B00E261}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{5F1471C1-A363-4F06-969B-0595B446CB68}" name="Timeline" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{C78A138D-8EFD-4BED-81AB-139FEDCFCE78}" name="Completed Questions"/>
-    <tableColumn id="4" xr3:uid="{89A04200-39A7-4E74-A956-EFA3E43AE755}" name="LeetCode ID" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{E1A81FE0-BA23-4789-956E-0BA28870CFB7}" name="HackerRank ID" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{89A04200-39A7-4E74-A956-EFA3E43AE755}" name="LeetCode ID" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3CB4432F-AAB5-432D-9A10-0362C55C5331}" name="Table4" displayName="Table4" ref="A1:C25" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:C25" xr:uid="{D6148891-E6FB-4182-90CD-FB8656804591}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{30D8286F-6E64-42F7-9F0F-D729000B5678}" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{0C6C1D61-D4CB-4EE9-AD45-743FA4F4F083}" name="Difficulity" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{290200D2-28DE-4F4C-9DA9-FB74BAE5CD1E}" name="Time Spent (min)" dataDxfId="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{259441D1-65DE-491C-96A2-E7F319946924}" name="Table3" displayName="Table3" ref="A1:A2" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="A1:A2" xr:uid="{2202CC71-88B2-423C-9AAB-D4048A253793}"/>
   <tableColumns count="1">
@@ -1043,7 +995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -1067,11 +1019,9 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
@@ -1123,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1132,7 +1082,7 @@
         <v>43378</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1147,13 +1097,13 @@
         <v>43395</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1162,13 +1112,13 @@
         <v>43396</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1177,7 +1127,7 @@
         <v>43397</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -1192,13 +1142,13 @@
         <v>43398</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1207,7 +1157,7 @@
         <v>43400</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -1222,13 +1172,13 @@
         <v>43401</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1">
         <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -1237,13 +1187,13 @@
         <v>43402</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1252,13 +1202,13 @@
         <v>43403</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
         <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -1267,7 +1217,7 @@
         <v>43409</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -1282,7 +1232,7 @@
         <v>43410</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -1297,13 +1247,13 @@
         <v>43411</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -1312,7 +1262,7 @@
         <v>43415</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1327,7 +1277,7 @@
         <v>43421</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1342,13 +1292,13 @@
         <v>43429</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1">
         <v>7</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1357,13 +1307,13 @@
         <v>43432</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -1372,13 +1322,13 @@
         <v>43433</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1387,13 +1337,13 @@
         <v>43434</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -1402,13 +1352,13 @@
         <v>43439</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -1417,13 +1367,13 @@
         <v>43442</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E25" s="1"/>
     </row>
@@ -1432,13 +1382,13 @@
         <v>43444</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -1447,7 +1397,7 @@
         <v>43445</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
@@ -1462,13 +1412,13 @@
         <v>43449</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C28" s="1">
         <v>5</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -1589,7 +1539,7 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E45" s="1"/>
     </row>
@@ -1603,197 +1553,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88CF04A-5E34-4BE4-A3E6-0A32C84D391D}">
-  <dimension ref="A1:C25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="18.86328125" customWidth="1"/>
-    <col min="2" max="2" width="20.53125" customWidth="1"/>
-    <col min="3" max="3" width="27.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
-        <v>807</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>890</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>544</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>36</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6BF9002C-1DF1-4F1E-AE77-78F40BE04ED9}">
-          <x14:formula1>
-            <xm:f>DataSource!$A$1:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B25</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE997975-1A6B-4A62-8DE4-14213450BA33}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1821,33 +1580,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB45D3CC-98C8-404C-85F4-F560B85C12E0}">
-  <dimension ref="A2:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1106E675-488C-48EE-950B-AF6971841D4B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FE0308-A39D-48D6-9FC8-C70398F6B2ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,7 +473,16 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-289</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>289</t>
     </r>
   </si>
 </sst>
@@ -996,7 +1005,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FE0308-A39D-48D6-9FC8-C70398F6B2ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828900F8-189F-4504-94D5-ACA70928CF3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -483,6 +483,57 @@
         <scheme val="minor"/>
       </rPr>
       <t>289</t>
+    </r>
+  </si>
+  <si>
+    <t>Day28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">201
+211
+216
+220
+222
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+245
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>251</t>
     </r>
   </si>
 </sst>
@@ -1004,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1431,11 +1482,19 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+    <row r="29" spans="1:5" ht="114" x14ac:dyDescent="0.45">
+      <c r="A29" s="2">
+        <v>43455</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="1">
+        <v>8</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828900F8-189F-4504-94D5-ACA70928CF3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA76185E-B5E7-43D9-8F53-9116E120BFD6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incompleted" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -500,8 +500,46 @@
       <t xml:space="preserve">201
 211
 216
-220
-222
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>220</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>222</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -522,7 +560,26 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-245
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>245</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -535,6 +592,18 @@
       </rPr>
       <t>251</t>
     </r>
+  </si>
+  <si>
+    <t>4
+12
+23
+29
+50
+137
+192</t>
+  </si>
+  <si>
+    <t>Day29</t>
   </si>
 </sst>
 </file>
@@ -652,8 +721,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7970DE8B-87D9-4437-B9EE-937BF29D00C4}" name="Table1" displayName="Table1" ref="A1:A17" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:A17" xr:uid="{A414288C-18FD-4E8C-B9C1-0798E4D24AF5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7970DE8B-87D9-4437-B9EE-937BF29D00C4}" name="Table1" displayName="Table1" ref="A1:A15" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:A15" xr:uid="{A414288C-18FD-4E8C-B9C1-0798E4D24AF5}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{2F987F39-AB38-432E-9D47-4EE7DDF44BF9}" name="ID" dataDxfId="7"/>
   </tableColumns>
@@ -947,9 +1016,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -964,81 +1033,71 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>48</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>89</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>114</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>145</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>207</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>215</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>341</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>399</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>445</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>476</v>
+        <v>542</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>535</v>
+        <v>653</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
         <v>687</v>
       </c>
     </row>
@@ -1055,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1497,11 +1556,19 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+    <row r="30" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
+        <v>43456</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="1">
+        <v>7</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA76185E-B5E7-43D9-8F53-9116E120BFD6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4C4336-4AFB-4680-931A-7AE473480613}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incompleted" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -489,111 +488,6 @@
     <t>Day28</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">201
-211
-216
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>220</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>222</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>244</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>245</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>251</t>
-    </r>
-  </si>
-  <si>
     <t>4
 12
 23
@@ -604,6 +498,139 @@
   </si>
   <si>
     <t>Day29</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>201</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>211</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+216
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>220</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>222</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>245</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>251</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1018,7 +1045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1114,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1552,7 +1579,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -1561,13 +1588,13 @@
         <v>43456</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="1">
         <v>7</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30" s="1"/>
     </row>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4C4336-4AFB-4680-931A-7AE473480613}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323C0E0E-D69E-4270-A38E-C2EAB77CF22E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,148 +488,178 @@
     <t>Day28</t>
   </si>
   <si>
-    <t>4
+    <t>Day29</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>201</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>211</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>216</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>220</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>222</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>245</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>251</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4
 12
 23
 29
 50
 137
-192</t>
-  </si>
-  <si>
-    <t>Day29</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>201</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>211</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-216
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>220</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>222</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>244</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>245</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>251</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>192</t>
     </r>
   </si>
 </sst>
@@ -1141,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1579,7 +1609,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -1588,13 +1618,13 @@
         <v>43456</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1">
         <v>7</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E30" s="1"/>
     </row>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323C0E0E-D69E-4270-A38E-C2EAB77CF22E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A25A79-B40F-4285-B5DA-30B330C7BF93}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -649,17 +649,16 @@
 23
 29
 50
-137
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>192</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>137</t>
     </r>
   </si>
 </sst>
@@ -1613,7 +1612,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>43456</v>
       </c>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A25A79-B40F-4285-B5DA-30B330C7BF93}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C8A6E5-FD85-4B1E-B0A1-3CFED9063ADE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -659,6 +659,24 @@
         <scheme val="minor"/>
       </rPr>
       <t>137</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+223
+227
+228
+229
+230
+241
+249
+250</t>
     </r>
   </si>
 </sst>
@@ -1170,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1612,7 +1630,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>43456</v>
       </c>
@@ -1620,7 +1638,7 @@
         <v>50</v>
       </c>
       <c r="C30" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>52</v>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C8A6E5-FD85-4B1E-B0A1-3CFED9063ADE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B3B2B6-E1E3-44B6-9BC8-2E81E413AC92}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -658,7 +658,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>137</t>
+      <t>137
+190</t>
     </r>
     <r>
       <rPr>
@@ -675,8 +676,36 @@
 229
 230
 241
-249
-250</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>249</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>250</t>
     </r>
   </si>
 </sst>
@@ -1188,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1630,7 +1659,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>43456</v>
       </c>
@@ -1638,7 +1667,7 @@
         <v>50</v>
       </c>
       <c r="C30" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>52</v>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B3B2B6-E1E3-44B6-9BC8-2E81E413AC92}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28EB035-03F1-4A11-AC4A-63443A6DE50D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -707,6 +707,9 @@
       </rPr>
       <t>250</t>
     </r>
+  </si>
+  <si>
+    <t>Day30</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1221,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1675,10 +1678,18 @@
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="A31" s="2">
+        <v>43463</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>572</v>
+      </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28EB035-03F1-4A11-AC4A-63443A6DE50D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA3199D-683C-4EDF-B8DB-646B807BAAAA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -710,6 +710,10 @@
   </si>
   <si>
     <t>Day30</t>
+  </si>
+  <si>
+    <t>508
+572</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1225,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1677,7 +1681,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>43463</v>
       </c>
@@ -1687,8 +1691,8 @@
       <c r="C31" s="1">
         <v>1</v>
       </c>
-      <c r="D31" s="1">
-        <v>572</v>
+      <c r="D31" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E31" s="1"/>
     </row>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA3199D-683C-4EDF-B8DB-646B807BAAAA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D3C69C-3D8C-404C-822A-D52F26439913}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -713,7 +713,8 @@
   </si>
   <si>
     <t>508
-572</t>
+572
+623</t>
   </si>
 </sst>
 </file>
@@ -1681,7 +1682,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>43463</v>
       </c>
@@ -1689,7 +1690,7 @@
         <v>53</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>54</v>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D3C69C-3D8C-404C-822A-D52F26439913}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7222135-2237-4DD0-B0B8-4787C8FC512E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -643,6 +643,14 @@
     </r>
   </si>
   <si>
+    <t>Day30</t>
+  </si>
+  <si>
+    <t>508
+572
+623</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">4
 12
@@ -674,8 +682,46 @@
 227
 228
 229
-230
-241
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>230</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>241</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -707,14 +753,6 @@
       </rPr>
       <t>250</t>
     </r>
-  </si>
-  <si>
-    <t>Day30</t>
-  </si>
-  <si>
-    <t>508
-572
-623</t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1716,7 @@
         <v>15</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -1687,13 +1725,13 @@
         <v>43463</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="1"/>
     </row>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7222135-2237-4DD0-B0B8-4787C8FC512E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7C308D-2D5A-4913-A0CD-D8918A698C96}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -680,8 +680,46 @@
       <t xml:space="preserve">
 223
 227
-228
-229
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>228</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>229</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -1264,7 +1302,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7C308D-2D5A-4913-A0CD-D8918A698C96}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A388EC7-0146-462B-9F7C-5C7B4F9B4789}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -679,7 +679,26 @@
       </rPr>
       <t xml:space="preserve">
 223
-227
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>227</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -1301,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A388EC7-0146-462B-9F7C-5C7B4F9B4789}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B7995A-692E-4D62-96AF-B75B60FBF314}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -810,6 +810,9 @@
       </rPr>
       <t>250</t>
     </r>
+  </si>
+  <si>
+    <t>Day31</t>
   </si>
 </sst>
 </file>
@@ -1320,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1793,10 +1796,18 @@
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="A32" s="2">
+        <v>43464</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>362</v>
+      </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B7995A-692E-4D62-96AF-B75B60FBF314}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D656AF41-A2B0-4FE0-95AA-754CA450D054}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -651,11 +651,33 @@
 623</t>
   </si>
   <si>
+    <t>Day31</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">4
 12
 23
-29
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 50
 </t>
     </r>
@@ -678,7 +700,26 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-223
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>223</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -810,9 +851,6 @@
       </rPr>
       <t>250</t>
     </r>
-  </si>
-  <si>
-    <t>Day31</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1362,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1776,7 +1814,7 @@
         <v>15</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -1800,7 +1838,7 @@
         <v>43464</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D656AF41-A2B0-4FE0-95AA-754CA450D054}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B2CB93-BFD4-4297-A77E-BA612623F1D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -851,6 +851,9 @@
       </rPr>
       <t>250</t>
     </r>
+  </si>
+  <si>
+    <t>Day32</t>
   </si>
 </sst>
 </file>
@@ -1361,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1849,10 +1852,18 @@
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="A33" s="2">
+        <v>43466</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>929</v>
+      </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B2CB93-BFD4-4297-A77E-BA612623F1D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FBFBAA-8F0C-4F44-B430-462795B35D25}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -854,6 +854,10 @@
   </si>
   <si>
     <t>Day32</t>
+  </si>
+  <si>
+    <t>285
+929</t>
   </si>
 </sst>
 </file>
@@ -1851,7 +1855,7 @@
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>43466</v>
       </c>
@@ -1859,10 +1863,10 @@
         <v>56</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
-        <v>929</v>
+        <v>2</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="E33" s="1"/>
     </row>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FBFBAA-8F0C-4F44-B430-462795B35D25}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F5F401-61AB-4899-8762-A5079921380E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -187,55 +187,6 @@
 270</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">81
-95
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">99
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>105</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>106
-113
-129</t>
-    </r>
-  </si>
-  <si>
     <t>Day23</t>
   </si>
   <si>
@@ -382,23 +333,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>131</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">301
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>380
-393
-400</t>
     </r>
   </si>
   <si>
@@ -654,12 +588,50 @@
     <t>Day31</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">4
-12
-23
-</t>
-    </r>
+    <t>Day32</t>
+  </si>
+  <si>
+    <t>285
+929</t>
+  </si>
+  <si>
+    <t>Day33</t>
+  </si>
+  <si>
+    <r>
+      <t>81
+95
+105</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>106
+113
+129</t>
+    </r>
+  </si>
+  <si>
+    <t>380
+393
+400</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -678,7 +650,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-50
 </t>
     </r>
     <r>
@@ -853,11 +824,13 @@
     </r>
   </si>
   <si>
-    <t>Day32</t>
-  </si>
-  <si>
-    <t>285
-929</t>
+    <t>12
+50
+341
+426
+528
+609
+722</t>
   </si>
 </sst>
 </file>
@@ -1368,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1660,7 +1633,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>43429</v>
       </c>
@@ -1668,10 +1641,10 @@
         <v>31</v>
       </c>
       <c r="C20" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1701,7 +1674,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -1725,13 +1698,13 @@
         <v>43439</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -1740,28 +1713,28 @@
         <v>43442</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>43444</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1">
-        <v>4</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>45</v>
+        <v>3</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="E26" s="1"/>
     </row>
@@ -1770,7 +1743,7 @@
         <v>43445</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
@@ -1785,13 +1758,13 @@
         <v>43449</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1">
         <v>5</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -1800,28 +1773,28 @@
         <v>43455</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1">
         <v>8</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>43456</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -1830,13 +1803,13 @@
         <v>43463</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -1845,7 +1818,7 @@
         <v>43464</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -1860,21 +1833,29 @@
         <v>43466</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+    <row r="34" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A34" s="2">
+        <v>43472</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="1">
+        <v>7</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
@@ -1952,7 +1933,7 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E45" s="1"/>
     </row>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F5F401-61AB-4899-8762-A5079921380E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98553FFE-D881-4AB9-93B7-A68FAF6D2A1D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1341,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="34" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
-        <v>43472</v>
+        <v>43477</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>55</v>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98553FFE-D881-4AB9-93B7-A68FAF6D2A1D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3957E5B1-3503-4D50-A4D1-7653C6841E88}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,11 +825,11 @@
   </si>
   <si>
     <t>12
+13
 50
 341
+399
 426
-528
-609
 722</t>
   </si>
 </sst>
@@ -1342,7 +1342,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Interview/Statistics.xlsx
+++ b/Interview/Statistics.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3957E5B1-3503-4D50-A4D1-7653C6841E88}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B606C4CF-25DE-4C0D-A639-AF420B25EC97}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15000" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incompleted" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -831,6 +831,14 @@
 399
 426
 722</t>
+  </si>
+  <si>
+    <t>247
+254
+255</t>
+  </si>
+  <si>
+    <t>Day34</t>
   </si>
 </sst>
 </file>
@@ -1341,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64218737-E735-4B86-B452-EE4CE0919502}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1858,11 +1866,19 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+    <row r="35" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A35" s="2">
+        <v>43482</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
